--- a/storage/app/xlsx/seed_cidades_am.xlsx
+++ b/storage/app/xlsx/seed_cidades_am.xlsx
@@ -23,7 +23,7 @@
     <t>ALVARÃENSE</t>
   </si>
   <si>
-    <t>a83b237f-303b-48bb-9216-7a921f8a182c</t>
+    <t>bc669d90-de86-4c1e-bd95-2fbab8b63613</t>
   </si>
   <si>
     <t>AMATURÁ</t>

--- a/storage/app/xlsx/seed_cidades_am.xlsx
+++ b/storage/app/xlsx/seed_cidades_am.xlsx
@@ -23,7 +23,7 @@
     <t>ALVARÃENSE</t>
   </si>
   <si>
-    <t>bc669d90-de86-4c1e-bd95-2fbab8b63613</t>
+    <t>e6084a65-1365-4b66-9d2d-364cb4f71261</t>
   </si>
   <si>
     <t>AMATURÁ</t>

--- a/storage/app/xlsx/seed_cidades_am.xlsx
+++ b/storage/app/xlsx/seed_cidades_am.xlsx
@@ -23,7 +23,7 @@
     <t>ALVARÃENSE</t>
   </si>
   <si>
-    <t>e6084a65-1365-4b66-9d2d-364cb4f71261</t>
+    <t>8115bec7-c12d-4a62-b528-f8b25aa63701</t>
   </si>
   <si>
     <t>AMATURÁ</t>

--- a/storage/app/xlsx/seed_cidades_am.xlsx
+++ b/storage/app/xlsx/seed_cidades_am.xlsx
@@ -23,7 +23,7 @@
     <t>ALVARÃENSE</t>
   </si>
   <si>
-    <t>8115bec7-c12d-4a62-b528-f8b25aa63701</t>
+    <t>dec2250d-04de-4f70-a747-dbdaf424ad16</t>
   </si>
   <si>
     <t>AMATURÁ</t>

--- a/storage/app/xlsx/seed_cidades_am.xlsx
+++ b/storage/app/xlsx/seed_cidades_am.xlsx
@@ -23,7 +23,7 @@
     <t>ALVARÃENSE</t>
   </si>
   <si>
-    <t>dec2250d-04de-4f70-a747-dbdaf424ad16</t>
+    <t>d7707d4a-3642-4ccf-82e0-bd4397c2255a</t>
   </si>
   <si>
     <t>AMATURÁ</t>

--- a/storage/app/xlsx/seed_cidades_am.xlsx
+++ b/storage/app/xlsx/seed_cidades_am.xlsx
@@ -23,7 +23,7 @@
     <t>ALVARÃENSE</t>
   </si>
   <si>
-    <t>d7707d4a-3642-4ccf-82e0-bd4397c2255a</t>
+    <t>e6c785ae-80cc-4dd7-8888-792ae1ec5e38</t>
   </si>
   <si>
     <t>AMATURÁ</t>
